--- a/circuit/remote_controller/remote_controller_bom_pcbway.xlsx
+++ b/circuit/remote_controller/remote_controller_bom_pcbway.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="256">
   <si>
     <t xml:space="preserve">Remote controller BOM</t>
   </si>
@@ -362,300 +362,203 @@
     <t xml:space="preserve">RT0603BRB0722K1L </t>
   </si>
   <si>
+    <t xml:space="preserve">22.1kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/YAGEO/RT0603BRB0722K1L?qs=sGAEpiMZZMtlubZbdhIBIFwAPm1rE69%252BVpUp6WtgZWs%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6, R10, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishay / Dale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCS06035K10FKEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/Vishay-Dale/RCS06035K10FKEA?qs=sGAEpiMZZMtlubZbdhIBIE5LhqqS5SwHtki3GxnhvnY%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7, R8, R19, R20, R21,
+R22, R27, R28, R29, R30, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603L001/60YR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100Ω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/Littelfuse/0603L001-60YR?qs=vmHwEFxEFR%252Bqpk0gfi6KUQ%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishay / Dale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNPW060347K5BEEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/Vishay-Dale/TNPW060347K5BEEA?qs=sGAEpiMZZMtlubZbdhIBIPU71Uf%252BtGsSjdE%252BnV%2FjH18%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishay / BC Components </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTCS0603E3202GLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/Vishay-BC-Components/NTCS0603E3202GLT?qs=%2FWiulJ9oly6RDPZsx8Fw8g%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13, R14, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishay / Beyschlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCT0603HZ0000ZP500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0Ω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/Vishay-Beyschlag/MCT0603HZ0000ZP500?qs=sGAEpiMZZMukHu%252BjC5l7YS45V2nDEa%2Fh%252BgDnHJRSHR4%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15, R16, R17, R18, R23
+R24, R25, R26, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishay / BC Components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTCS0603E3502FLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/Vishay-BC-Components/NTCS0603E3502FLT?qs=doiCPypUmgFTT6mDFv6oKA%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1, SW2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C&amp;K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMR231NGLFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Push</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Push button switch, generic, two pins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/CK/KMR231NGLFS?qs=sb%252But3Lm4x1Y5NsXXdZx2g%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW3, SW4, SW5, SW6, SW7,
+SW8, SW9, SW10, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diptronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTSM-65N-V-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6x6mm_H9.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/Diptronics/DTSM-65N-V-B?qs=gTYE2QTfZfSXwXAGPNekUg%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analog Devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT1963AEST-3.3#PBF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT1963AxST-3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3V, 1.5A, Low Noise,
+Fast Transient Response LDO Regulator,
+SOT-223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-223-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/Analog-Devices/LT1963AEST-3.3PBF?qs=ytflclh7QUWACCdXyVJ5gA%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espressif Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP32-WROVER-B-N8R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP32-WROVER-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.jp/ja/products/detail/espressif-systems/ESP32-WROVER-B-N8R8/9857843</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="arial"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">22.1k</t>
+      <t xml:space="preserve">Should have </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="arial"/>
-        <family val="2"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Ω</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/YAGEO/RT0603BRB0722K1L?qs=sGAEpiMZZMtlubZbdhIBIFwAPm1rE69%252BVpUp6WtgZWs%3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6, R10, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vishay / Dale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCS06035K10FKEA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5.1k</t>
+      <t xml:space="preserve">技適 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="arial"/>
-        <family val="2"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Ω</t>
+      <t xml:space="preserve">mark to use in Japan.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/Vishay-Dale/RCS06035K10FKEA?qs=sGAEpiMZZMtlubZbdhIBIE5LhqqS5SwHtki3GxnhvnY%3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7, R8, R19, R20, R21,
-R22, R27, R28, R29, R30, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0603L001/60YR</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Ω</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/Littelfuse/0603L001-60YR?qs=vmHwEFxEFR%252Bqpk0gfi6KUQ%3D%3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vishay / Dale </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNPW060347K5BEEA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">47.5k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Ω</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/Vishay-Dale/TNPW060347K5BEEA?qs=sGAEpiMZZMtlubZbdhIBIPU71Uf%252BtGsSjdE%252BnV%2FjH18%3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vishay / BC Components </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTCS0603E3202GLT</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Ω</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/Vishay-BC-Components/NTCS0603E3202GLT?qs=%2FWiulJ9oly6RDPZsx8Fw8g%3D%3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R13, R14, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vishay / Beyschlag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCT0603HZ0000ZP500</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Ω</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/Vishay-Beyschlag/MCT0603HZ0000ZP500?qs=sGAEpiMZZMukHu%252BjC5l7YS45V2nDEa%2Fh%252BgDnHJRSHR4%3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R15, R16, R17, R18, R23
-R24, R25, R26, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vishay / BC Components</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTCS0603E3502FLT</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Ω</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/Vishay-BC-Components/NTCS0603E3502FLT?qs=doiCPypUmgFTT6mDFv6oKA%3D%3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW1, SW2, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C&amp;K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMR231NGLFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW_Push</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Push button switch, generic, two pins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/CK/KMR231NGLFS?qs=sb%252But3Lm4x1Y5NsXXdZx2g%3D%3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW3, SW4, SW5, SW6, SW7,
-SW8, SW9, SW10, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diptronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTSM-65N-V-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6x6mm_H9.5mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/Diptronics/DTSM-65N-V-B?qs=gTYE2QTfZfSXwXAGPNekUg%3D%3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog Devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT1963AEST-3.3#PBF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT1963AxST-3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3V, 1.5A, Low Noise,
-Fast Transient Response LDO Regulator,
-SOT-223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT-223-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mouser.jp/ProductDetail/Analog-Devices/LT1963AEST-3.3PBF?qs=ytflclh7QUWACCdXyVJ5gA%3D%3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espressif Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESP32-WROVER-B-N8R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESP32-WROVER-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.jp/ja/products/detail/espressif-systems/ESP32-WROVER-B-N8R8/9857843</t>
   </si>
   <si>
     <t xml:space="preserve">U3, </t>
@@ -1106,9 +1009,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="arial"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1184,7 +1087,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1242,38 +1145,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1285,28 +1172,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1400,9 +1271,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>666360</xdr:colOff>
+      <xdr:colOff>666000</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1416,7 +1287,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="203760"/>
-          <a:ext cx="1360080" cy="375840"/>
+          <a:ext cx="1359720" cy="375480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1438,19 +1309,19 @@
   </sheetPr>
   <dimension ref="A2:K31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="39.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="38.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="29.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="136.28"/>
@@ -1550,8 +1421,8 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1581,7 +1452,7 @@
       <c r="J8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
@@ -1653,7 +1524,7 @@
       <c r="A11" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="9" t="n">
@@ -1701,10 +1572,10 @@
       <c r="F12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="16" t="s">
         <v>44</v>
       </c>
       <c r="I12" s="13" t="s">
@@ -1763,10 +1634,10 @@
       <c r="F14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="16" t="s">
         <v>55</v>
       </c>
       <c r="I14" s="13" t="s">
@@ -1799,7 +1670,7 @@
       <c r="G15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="16" t="s">
         <v>63</v>
       </c>
       <c r="I15" s="13" t="s">
@@ -1810,8 +1681,8 @@
       </c>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="n">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1832,7 +1703,7 @@
       <c r="G16" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="16" t="s">
         <v>70</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -1841,7 +1712,7 @@
       <c r="J16" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="15"/>
+      <c r="K16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
@@ -1979,7 +1850,7 @@
       <c r="A21" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C21" s="9" t="n">
@@ -1988,7 +1859,7 @@
       <c r="D21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="11" t="s">
         <v>93</v>
       </c>
       <c r="F21" s="11" t="s">
@@ -2042,7 +1913,7 @@
       <c r="K22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="n">
+      <c r="A23" s="7" t="n">
         <v>17</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2084,7 +1955,7 @@
       <c r="C24" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="11" t="s">
         <v>107</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -2111,7 +1982,7 @@
       <c r="A25" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>111</v>
       </c>
       <c r="C25" s="9" t="n">
@@ -2162,7 +2033,7 @@
       <c r="G26" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="16" t="s">
         <v>121</v>
       </c>
       <c r="I26" s="13" t="s">
@@ -2177,7 +2048,7 @@
       <c r="A27" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C27" s="9" t="n">
@@ -2195,7 +2066,7 @@
       <c r="G27" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="16" t="s">
         <v>126</v>
       </c>
       <c r="I27" s="13" t="s">
@@ -2225,10 +2096,10 @@
       <c r="F28" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="16" t="s">
         <v>133</v>
       </c>
       <c r="I28" s="13" t="s">
@@ -2261,7 +2132,7 @@
       <c r="G29" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="16" t="s">
         <v>138</v>
       </c>
       <c r="I29" s="13" t="s">
@@ -2270,45 +2141,45 @@
       <c r="J29" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="K29" s="13"/>
+      <c r="K29" s="13" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
         <v>24</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C30" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>141</v>
+      <c r="D30" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" s="22" t="s">
         <v>145</v>
       </c>
+      <c r="H30" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="I30" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2339,20 +2210,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="16.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="21.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="29.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="41.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="13.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="23" width="35.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="23" width="9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="16.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="19" width="21.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="19" width="29.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="41.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="19" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="19" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="19" width="35.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="19" width="9"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2361,22 +2232,22 @@
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="20" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2384,406 +2255,406 @@
       <c r="A3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>147</v>
+      <c r="B3" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="C3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="F3" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="G3" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="14" t="n">
+        <v>153</v>
+      </c>
+      <c r="C4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="F4" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="H4" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>158</v>
+      <c r="B5" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="C5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="F5" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="27"/>
+      <c r="G5" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>163</v>
+      <c r="B6" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="C6" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="E6" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="F6" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="27"/>
+      <c r="G6" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>168</v>
+      <c r="B7" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="C7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="E7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="F7" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="27"/>
+      <c r="G7" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>173</v>
+      <c r="B8" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="C8" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="F8" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="H8" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="27"/>
+      <c r="G8" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>178</v>
+      <c r="B9" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="C9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="E9" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="F9" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="H9" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="27"/>
+      <c r="G9" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>183</v>
+      <c r="B10" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="C10" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" s="25" t="s">
+      <c r="D10" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="G10" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="27"/>
+      <c r="F10" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>186</v>
+      <c r="B11" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="C11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="E11" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G11" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
+      <c r="F11" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="14" t="n">
+        <v>191</v>
+      </c>
+      <c r="C12" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" s="15"/>
+        <v>193</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>193</v>
+      <c r="B13" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="C13" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="E13" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="27"/>
+      <c r="F13" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>197</v>
+      <c r="B14" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="C14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="F14" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="H14" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="27"/>
+      <c r="G14" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>202</v>
+      <c r="B15" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="C15" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="E15" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="G15" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="27"/>
+      <c r="F15" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>206</v>
+      <c r="B16" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="C16" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="E16" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="G16" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="27"/>
+      <c r="F16" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>210</v>
+      <c r="B17" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="C17" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="F17" s="26" t="s">
+      <c r="D17" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="F17" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="G17" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="I17" s="27"/>
+      <c r="H17" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="I17" s="22"/>
     </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2815,587 +2686,587 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="32" width="37.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="32" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="32" width="22.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="32" width="55.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="32" width="50.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="32" width="119.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="32" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="37.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="24" width="22.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="55.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="50.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="24" width="119.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="24" width="10.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="F1" s="24" t="s">
         <v>220</v>
       </c>
+      <c r="G1" s="24" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="32" t="n">
+      <c r="B2" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="D2" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="32" t="n">
+      <c r="E3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="B6" s="32" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="32" t="n">
+      <c r="C12" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="24" t="n">
+        <v>147</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="32" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="E12" s="32" t="s">
+      <c r="C15" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F15" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="24" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="G12" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="32" t="n">
+      <c r="E16" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="G25" s="24" t="s">
         <v>147</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="B16" s="32" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" s="32" t="n">
-        <v>100</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="B20" s="32" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="B22" s="32" t="n">
-        <v>8</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
